--- a/Planning and Design/SprintBurnDown_Sprint_2.xlsx
+++ b/Planning and Design/SprintBurnDown_Sprint_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shawn\source\CST-323\CST-247-Project\Planning and Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B750770E-728C-4B78-BB7E-D44D38242634}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A4CEA2-F6A8-4D73-A989-1F28D7C6CBF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3188" yWindow="3773" windowWidth="20490" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2393" yWindow="1493" windowWidth="20490" windowHeight="13094" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Task</t>
   </si>
@@ -94,6 +94,12 @@
     <t>Task 3</t>
   </si>
   <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Task 5</t>
+  </si>
+  <si>
     <t>Task 6</t>
   </si>
   <si>
@@ -154,6 +160,39 @@
     <t>After each Daily Standup each Team Member should review the Burn Down Chart to ensure your Sprint will be delivered on time</t>
   </si>
   <si>
+    <t>M2-1</t>
+  </si>
+  <si>
+    <t>M2-2</t>
+  </si>
+  <si>
+    <t>M2-3</t>
+  </si>
+  <si>
+    <t>M2-4</t>
+  </si>
+  <si>
+    <t>M2-6</t>
+  </si>
+  <si>
+    <t>M2-5</t>
+  </si>
+  <si>
+    <t>I would like to setup the database so we can save data</t>
+  </si>
+  <si>
+    <t>I would like to create login and registration controllers</t>
+  </si>
+  <si>
+    <t>I would like to create models for user and registration</t>
+  </si>
+  <si>
+    <t>I would like to create views that are consumed by controllers</t>
+  </si>
+  <si>
+    <t>I would like to insure that controllers and views validate data</t>
+  </si>
+  <si>
     <t>I would like to update design documentation</t>
   </si>
   <si>
@@ -164,29 +203,8 @@
   </si>
   <si>
     <t>Project Title: Minesweeper
-Release #: 2.0
+Release #: 1.0
 Sprint #: 2</t>
-  </si>
-  <si>
-    <t>M3-1</t>
-  </si>
-  <si>
-    <t>M3-2</t>
-  </si>
-  <si>
-    <t>M3-3</t>
-  </si>
-  <si>
-    <t>M3-4</t>
-  </si>
-  <si>
-    <t>I would like to create the game board and game cell classes so we can begin the base game.</t>
-  </si>
-  <si>
-    <t>I would like to create a game controller so we can show the game board to users.</t>
-  </si>
-  <si>
-    <t>I would like to create a game service which house logic from previous assignments so we have game functionality.</t>
   </si>
 </sst>
 </file>
@@ -435,39 +453,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down Chart'!$G$12:$P$12</c:f>
+              <c:f>'Burn Down Chart'!$G$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.4</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8000000000000007</c:v>
+                  <c:v>7.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2000000000000011</c:v>
+                  <c:v>6.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.600000000000001</c:v>
+                  <c:v>5.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0000000000000009</c:v>
+                  <c:v>4.4999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4000000000000008</c:v>
+                  <c:v>3.5999999999999983</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8000000000000007</c:v>
+                  <c:v>2.6999999999999984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2000000000000006</c:v>
+                  <c:v>1.7999999999999985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60000000000000064</c:v>
+                  <c:v>0.89999999999999847</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-1.5543122344752192E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,27 +561,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down Chart'!$G$13:$P$13</c:f>
+              <c:f>'Burn Down Chart'!$G$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -656,13 +674,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -956,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -972,7 +990,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1007,7 +1025,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -1051,10 +1069,10 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>46</v>
@@ -1063,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -1072,10 +1090,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -1101,10 +1119,10 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>47</v>
@@ -1113,7 +1131,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1121,7 +1139,9 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
@@ -1132,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -1149,10 +1169,10 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>48</v>
@@ -1161,10 +1181,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1173,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -1199,22 +1219,22 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1232,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
@@ -1249,14 +1269,22 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -1274,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -1291,14 +1319,22 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1316,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -1419,54 +1455,41 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="4">
-        <f>SUM(F4:F11)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <f>F12-$F$12/10</f>
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" ref="H12:P12" si="0">G12-$F$12/10</f>
-        <v>4.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="0"/>
-        <v>4.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>3.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000009</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000008</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000006</v>
+        <v>0</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000064</v>
+        <v>0</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q12" s="1"/>
@@ -1474,54 +1497,41 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="4">
-        <f>SUM(F4:F11)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f>F13 - SUM(G4:G11)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>G13 - SUM(H4:H11)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f>H13 - SUM(I4:I11)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f>I13 - SUM(J4:J11)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
-        <f>J13 - SUM(K4:K11)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4">
-        <f>K13 - SUM(L4:L11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="4">
-        <f>L13 - SUM(M4:M11)</f>
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <f>M13 - SUM(N4:N11)</f>
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <f>N13 - SUM(O4:O11)</f>
         <v>0</v>
       </c>
       <c r="P13" s="4">
-        <f>O13 - SUM(P4:P11)</f>
         <v>0</v>
       </c>
       <c r="Q13" s="1"/>
@@ -1529,41 +1539,111 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4">
+        <f>SUM(F4:F13)</f>
+        <v>9</v>
+      </c>
+      <c r="G14" s="4">
+        <f>F14-$F$14/10</f>
+        <v>8.1</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" ref="H14:P14" si="0">G14-$F$14/10</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2999999999999989</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999982</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999983</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6999999999999984</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999985</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999847</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.5543122344752192E-15</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4">
+        <f>SUM(F4:F13)</f>
+        <v>9</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15:P15" si="1">F15 - SUM(G4:G13)</f>
+        <v>9</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
@@ -1967,10 +2047,50 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1998,74 +2118,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -2134,6 +2254,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9FDC2B66788A044965A7B8958E6244A" ma:contentTypeVersion="1251" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c2c36359d71eb747fbb188f75fc8d29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="d6188da8-f31e-469a-aed4-03a23c44e36a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08acee74153637279a480e75df712a71" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2322,7 +2451,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2331,16 +2460,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA975265-C41C-4191-AC8E-A5AD70B8A3C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2359,27 +2496,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>